--- a/GL50_TestData_ManageJournalCategories_21B.xlsx
+++ b/GL50_TestData_ManageJournalCategories_21B.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UIAF-Selenium_Python-master\UIAF-Selenium_Python-master\venv\Selenium\21B_Results_and_Scripts\GNB GL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UIAF-Selenium_Python-master\UIAF-Selenium_Python-master\venv\Selenium\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B3CDB6-855C-4E65-8819-A4F901DE7A44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82DBCA3-D3EA-4AD7-91E9-526BDEF260B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,80 +25,12 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Raj Divekar</author>
-  </authors>
-  <commentList>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{FCEC2E1F-C554-4A44-93E6-59B7F9BDAD4F}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Raj Divekar:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Provide unique AlphaNumeric or Numeric value here
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{0C8B4618-7A51-4940-9682-EC22B5B23966}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Raj Divekar:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Provide unique AlphaNumeric or Numeric value here. For test purpose it is kept same as Name but can be different but it should be unique</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
-  <si>
-    <t>UserName</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Search</t>
   </si>
   <si>
-    <t>URL</t>
-  </si>
-  <si>
     <t>m%Journal Cat%</t>
   </si>
   <si>
@@ -114,9 +46,6 @@
     <t>EditDesc</t>
   </si>
   <si>
-    <t>AutomationTest32</t>
-  </si>
-  <si>
     <t>LowWait</t>
   </si>
   <si>
@@ -141,14 +70,26 @@
     <t>HighestExplicitWait</t>
   </si>
   <si>
-    <t>AutomationTestGNB1</t>
+    <t>Provide unique AlphaNumeric or Numeric value here</t>
+  </si>
+  <si>
+    <t>AutomationTest_Edit_GNB2</t>
+  </si>
+  <si>
+    <t>Provide unique AlphaNumeric or Numeric value here. For test purpose it is kept same as Name but can be different but it should be unique</t>
+  </si>
+  <si>
+    <t>AutomationTestGNB90</t>
+  </si>
+  <si>
+    <t>AutomationTestGNB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,34 +106,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -201,31 +121,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -254,48 +150,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -607,139 +480,124 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.08984375" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7265625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.453125" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.90625" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7265625" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.54296875" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.81640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7265625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="13" width="19" style="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.7265625" style="10"/>
-    <col min="15" max="15" width="31.36328125" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="26.26953125" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="10.1796875" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="16384" width="8.7265625" style="10"/>
+    <col min="1" max="1" width="15.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="3" max="3" width="27" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
+    <col min="5" max="5" width="24.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="K1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="L1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="M1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="4">
+        <v>2</v>
+      </c>
+      <c r="G2" s="4">
+        <v>6</v>
+      </c>
+      <c r="H2" s="4">
+        <v>10</v>
+      </c>
+      <c r="I2" s="4">
+        <v>30</v>
+      </c>
+      <c r="J2" s="4">
+        <v>15</v>
+      </c>
+      <c r="K2" s="4">
+        <v>30</v>
+      </c>
+      <c r="L2" s="4">
+        <v>60</v>
+      </c>
+      <c r="M2" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A2" s="8">
-        <v>2</v>
-      </c>
-      <c r="B2" s="8">
-        <v>6</v>
-      </c>
-      <c r="C2" s="8">
-        <v>10</v>
-      </c>
-      <c r="D2" s="8">
-        <v>30</v>
-      </c>
-      <c r="E2" s="8">
-        <v>15</v>
-      </c>
-      <c r="F2" s="8">
-        <v>30</v>
-      </c>
-      <c r="G2" s="8">
-        <v>60</v>
-      </c>
-      <c r="H2" s="8">
-        <v>120</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="8"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="K4" s="9"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="K6" s="9" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/GL50_TestData_ManageJournalCategories_21B.xlsx
+++ b/GL50_TestData_ManageJournalCategories_21B.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UIAF-Selenium_Python-master\UIAF-Selenium_Python-master\venv\Selenium\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PriyankJain\Desktop\23June-GL Files\Batch1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82DBCA3-D3EA-4AD7-91E9-526BDEF260B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81162B37-3481-4CF5-821F-617C3B9893D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Search</t>
   </si>
@@ -43,9 +43,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>EditDesc</t>
-  </si>
-  <si>
     <t>LowWait</t>
   </si>
   <si>
@@ -73,16 +70,22 @@
     <t>Provide unique AlphaNumeric or Numeric value here</t>
   </si>
   <si>
-    <t>AutomationTest_Edit_GNB2</t>
-  </si>
-  <si>
     <t>Provide unique AlphaNumeric or Numeric value here. For test purpose it is kept same as Name but can be different but it should be unique</t>
   </si>
   <si>
-    <t>AutomationTestGNB90</t>
-  </si>
-  <si>
     <t>AutomationTestGNB</t>
+  </si>
+  <si>
+    <t>AutomationTestGNB299</t>
+  </si>
+  <si>
+    <t>Edit_Automation_GNB399</t>
+  </si>
+  <si>
+    <t>AutomationTestGNB399</t>
+  </si>
+  <si>
+    <t>EditCategory</t>
   </si>
 </sst>
 </file>
@@ -484,7 +487,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -517,32 +520,32 @@
       <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
@@ -550,16 +553,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="F2" s="4">
         <v>2</v>
@@ -588,10 +591,13 @@
     </row>
     <row r="4" spans="1:13" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>16</v>
+      <c r="E4" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/GL50_TestData_ManageJournalCategories_21B.xlsx
+++ b/GL50_TestData_ManageJournalCategories_21B.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PriyankJain\Desktop\23June-GL Files\Batch1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UIAF_Selenium_IGA-master\venv\Selenium\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81162B37-3481-4CF5-821F-617C3B9893D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB46B1E-AA52-4608-9423-19767BF6FB36}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input_Value" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>Search</t>
   </si>
@@ -76,16 +76,19 @@
     <t>AutomationTestGNB</t>
   </si>
   <si>
-    <t>AutomationTestGNB299</t>
-  </si>
-  <si>
-    <t>Edit_Automation_GNB399</t>
-  </si>
-  <si>
-    <t>AutomationTestGNB399</t>
-  </si>
-  <si>
     <t>EditCategory</t>
+  </si>
+  <si>
+    <t>EditDescription</t>
+  </si>
+  <si>
+    <t>Edit_Description</t>
+  </si>
+  <si>
+    <t>AutomationTestGNB705</t>
+  </si>
+  <si>
+    <t>Edit_Automation_GNB705</t>
   </si>
 </sst>
 </file>
@@ -484,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -496,18 +499,18 @@
     <col min="2" max="2" width="23" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="24.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="24.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -520,83 +523,89 @@
       <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="4">
+        <v>18</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="4">
         <v>2</v>
       </c>
-      <c r="G2" s="4">
+      <c r="H2" s="4">
         <v>6</v>
       </c>
-      <c r="H2" s="4">
+      <c r="I2" s="4">
         <v>10</v>
       </c>
-      <c r="I2" s="4">
+      <c r="J2" s="4">
         <v>30</v>
       </c>
-      <c r="J2" s="4">
+      <c r="K2" s="4">
         <v>15</v>
       </c>
-      <c r="K2" s="4">
+      <c r="L2" s="4">
         <v>30</v>
       </c>
-      <c r="L2" s="4">
+      <c r="M2" s="4">
         <v>60</v>
       </c>
-      <c r="M2" s="4">
+      <c r="N2" s="4">
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>13</v>
       </c>
     </row>
